--- a/画面設計/【画面設計】12_ユーザ管理画面(カロリー管理画面).xlsx
+++ b/画面設計/【画面設計】12_ユーザ管理画面(カロリー管理画面).xlsx
@@ -6,19 +6,20 @@
     <sheet state="visible" name="更新履歴" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="画面部品情報" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="ビジネスルール" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="編集用" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="6Oa7GrAAovpBme/dZLhgDB68A9nmTB4qzKUOTOFD4fI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="oWVXRxKMCmQ5qJLMIoHKW1EJaVmpA3yqOfdyZ8EPVWA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="59">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -69,6 +70,12 @@
   </si>
   <si>
     <t>（今までに登録したカロリー履歴を見る）</t>
+  </si>
+  <si>
+    <t>【スマホ版イメージ】</t>
+  </si>
+  <si>
+    <t>※日程を選ぶと入力可能になる。</t>
   </si>
   <si>
     <t>（上記でカレンダー表示時）</t>
@@ -133,6 +140,63 @@
   <si>
     <t>1. 処理一覧</t>
   </si>
+  <si>
+    <t>ユーザ管理画面</t>
+  </si>
+  <si>
+    <t>お気に入り料理の管理</t>
+  </si>
+  <si>
+    <t>カロリー管理</t>
+  </si>
+  <si>
+    <t>体重管理</t>
+  </si>
+  <si>
+    <t>プロフィール変更</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　⚫︎ カロリー管理</t>
+  </si>
+  <si>
+    <t>○今までに登録したカロリーの履歴を見る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　○カロリー管理</t>
+  </si>
+  <si>
+    <t>⚫︎今までに登録したカロリーの履歴を見る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　カロリー登録する日を指定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　カロリー履歴を表示する日を指定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　⚫︎ 体重管理</t>
+  </si>
+  <si>
+    <t>○今までに登録した体重の履歴を見る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　○体重管理</t>
+  </si>
+  <si>
+    <t>⚫︎今までに登録した体重の履歴を見る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　体重登録する日を指定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　体重履歴を表示する日を指定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　← IDの欄を追加して、非活性で表示させる。</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -196,8 +260,25 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color rgb="FFFF9900"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +315,26 @@
         <bgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -344,11 +443,30 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -553,6 +671,66 @@
     <xf borderId="9" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -569,6 +747,57 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9886950" cy="4800600"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="10667999" cy="5130547"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="10667999" cy="5130547"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId1">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="10667999" cy="5130547"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -581,7 +810,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -605,11 +834,11 @@
     <xdr:ext cx="5505450" cy="4810125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -626,18 +855,18 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4029075</xdr:colOff>
+      <xdr:colOff>4010025</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5467350" cy="4800600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip cstate="print" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -665,7 +894,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip cstate="print" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -689,11 +918,11 @@
     <xdr:ext cx="6886575" cy="5105400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+        <a:blip cstate="print" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -712,6 +941,1066 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4467225" cy="1743075"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="7315200" cy="2576783"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="7315200" cy="2576783"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId1">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="7315200" cy="2576783"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2133600" cy="2743200"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="4196560" cy="5410199"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="4196560" cy="5410199"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Shape 5"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="4196560" cy="5410199"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Shape 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1025250" y="4588250"/>
+            <a:ext cx="1522500" cy="741000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>1150kcal</a:t>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="885825" cy="371475"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="2762250" cy="1162050"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="2762250" cy="1162050"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Shape 7"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId3">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="2762250" cy="1162050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2409825" cy="3114675"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="4196560" cy="5410199"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="4196560" cy="5410199"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="Shape 8"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="4196560" cy="5410199"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Shape 9"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="781625" y="4415675"/>
+            <a:ext cx="1827300" cy="385800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>1500Kcal</a:t>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466725" cy="485775"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="2143125" cy="2143125"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="2143125" cy="2143125"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="Shape 10"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId4">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="2143125" cy="2143125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4676775" cy="600075"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="7315200" cy="916341"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="7315200" cy="916341"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="Shape 11"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId5">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="7315200" cy="916341"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5210175" cy="600075"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="7315200" cy="929122"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="7315200" cy="929122"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="Shape 12"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId6">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="7315200" cy="929122"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5334000" cy="600075"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="7315200" cy="929122"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="7315200" cy="929122"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="Shape 13"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId6">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="7315200" cy="929122"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2066925" cy="2667000"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="4196560" cy="5410199"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="4196560" cy="5410199"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="Shape 14"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="4196560" cy="5410199"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Shape 15"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="964350" y="4395375"/>
+            <a:ext cx="1837200" cy="700500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>67kg</a:t>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1066800" cy="485775"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="2762250" cy="1162050"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="2762250" cy="1162050"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="Shape 16"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId3">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="2762250" cy="1162050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2409825" cy="3114675"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="4196560" cy="5410199"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="4196560" cy="5410199"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="Shape 17"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="4196560" cy="5410199"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Shape 18"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="903425" y="4466425"/>
+            <a:ext cx="710700" cy="253800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>67 kg</a:t>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5419725" cy="666750"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="7315200" cy="929122"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="7315200" cy="929122"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="Shape 19"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId6">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="7315200" cy="929122"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5334000" cy="666750"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="7315200" cy="929122"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="7315200" cy="929122"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="Shape 20"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId6">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="7315200" cy="929122"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5419725" cy="666750"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="7315200" cy="929122"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="7315200" cy="929122"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="Shape 21"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId6">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="7315200" cy="929122"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5467350" cy="600075"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="7315200" cy="929122"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="7315200" cy="929122"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="Shape 22"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId6">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="7315200" cy="929122"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4552950" cy="3962400"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="6232418" cy="5410199"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="6232418" cy="5410199"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="Shape 23"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId7">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="6232418" cy="5410199"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3629025" cy="3914775"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="5036091" cy="5410200"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="5036091" cy="5410200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Shape 24"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId8">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="5036091" cy="5410200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2156,7 +3445,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -2322,7 +3611,9 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="25" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -2994,7 +4285,9 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -3015,12 +4308,12 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -3718,7 +5011,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -4476,7 +5769,7 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -4613,7 +5906,7 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -4643,13 +5936,13 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -4789,7 +6082,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -4819,10 +6112,10 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D94" s="20"/>
       <c r="E94" s="6"/>
@@ -5019,14 +6312,14 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="6"/>
       <c r="B101" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
@@ -5051,14 +6344,14 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
@@ -5083,30 +6376,30 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H103" s="32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I103" s="32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J103" s="32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K103" s="32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
@@ -5183,14 +6476,14 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="24"/>
       <c r="B106" s="50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C106" s="50"/>
       <c r="D106" s="50"/>
       <c r="E106" s="24"/>
       <c r="F106" s="24"/>
       <c r="G106" s="50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H106" s="50"/>
       <c r="I106" s="50"/>
@@ -5215,30 +6508,30 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="51"/>
       <c r="B107" s="52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D107" s="52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="51"/>
       <c r="G107" s="52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H107" s="52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I107" s="52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J107" s="52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K107" s="52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L107" s="24"/>
       <c r="M107" s="24"/>
@@ -5399,30 +6692,30 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="51"/>
       <c r="B113" s="52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C113" s="52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D113" s="52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="51"/>
       <c r="G113" s="52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H113" s="52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I113" s="52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J113" s="52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K113" s="52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L113" s="24"/>
       <c r="M113" s="24"/>
@@ -5499,14 +6792,14 @@
     <row r="116" ht="21.0" customHeight="1">
       <c r="A116" s="24"/>
       <c r="B116" s="50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C116" s="50"/>
       <c r="D116" s="50"/>
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
       <c r="G116" s="50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H116" s="50"/>
       <c r="I116" s="50"/>
@@ -5531,30 +6824,30 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="51"/>
       <c r="B117" s="52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C117" s="52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D117" s="52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="51"/>
       <c r="G117" s="52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H117" s="52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I117" s="52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J117" s="52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K117" s="52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L117" s="24"/>
       <c r="M117" s="24"/>
@@ -31486,7 +32779,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="65"/>
       <c r="B4" s="65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -31514,10 +32807,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="65"/>
@@ -53107,4 +54400,1163 @@
   <pageSetup paperSize="9" scale="48" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="4.86"/>
+    <col customWidth="1" min="3" max="3" width="23.71"/>
+    <col customWidth="1" min="6" max="6" width="21.29"/>
+    <col customWidth="1" min="7" max="9" width="3.71"/>
+    <col customWidth="1" min="10" max="10" width="25.29"/>
+    <col customWidth="1" min="13" max="13" width="21.57"/>
+    <col customWidth="1" min="14" max="14" width="5.29"/>
+  </cols>
+  <sheetData>
+    <row r="3">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="71"/>
+      <c r="G4" s="72"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="71"/>
+      <c r="G5" s="72"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="71"/>
+      <c r="G6" s="72"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="71"/>
+      <c r="C7" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="72"/>
+    </row>
+    <row r="8" ht="17.25" customHeight="1">
+      <c r="B8" s="71"/>
+      <c r="C8" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="72"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="71"/>
+      <c r="C9" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="72"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="71"/>
+      <c r="C10" s="78"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="71"/>
+      <c r="C11" s="78"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="71"/>
+      <c r="C12" s="78"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="71"/>
+      <c r="C13" s="78"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="71"/>
+      <c r="C14" s="78"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="71"/>
+      <c r="C15" s="78"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="71"/>
+      <c r="C16" s="78"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="71"/>
+      <c r="C17" s="79"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="71"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="72"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="71"/>
+      <c r="G30" s="72"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="82"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="68"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="70"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="70"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="71"/>
+      <c r="G35" s="72"/>
+      <c r="I35" s="71"/>
+      <c r="N35" s="72"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="71"/>
+      <c r="G36" s="72"/>
+      <c r="I36" s="71"/>
+      <c r="N36" s="72"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="71"/>
+      <c r="G37" s="72"/>
+      <c r="I37" s="71"/>
+      <c r="N37" s="72"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="71"/>
+      <c r="C38" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="72"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="72"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="B39" s="71"/>
+      <c r="C39" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="72"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="72"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="72"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="72"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="71"/>
+      <c r="C41" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="71"/>
+      <c r="C43" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="72"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="72"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="72"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="71"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="72"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="72"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="80"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="82"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="82"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="68"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="70"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="70"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="71"/>
+      <c r="G64" s="72"/>
+      <c r="I64" s="71"/>
+      <c r="N64" s="72"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="71"/>
+      <c r="G65" s="72"/>
+      <c r="I65" s="71"/>
+      <c r="N65" s="72"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="71"/>
+      <c r="G66" s="72"/>
+      <c r="I66" s="71"/>
+      <c r="N66" s="72"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="71"/>
+      <c r="C67" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="72"/>
+      <c r="I67" s="71"/>
+      <c r="J67" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="N67" s="72"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="71"/>
+      <c r="C68" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="G68" s="72"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="K68" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="L68" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="M68" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="N68" s="72"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="72"/>
+      <c r="I69" s="71"/>
+      <c r="J69" s="71"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="70"/>
+      <c r="N69" s="72"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="71"/>
+      <c r="C70" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="K70" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="71"/>
+      <c r="C71" s="71"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="71"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="72"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="71"/>
+      <c r="C72" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="M72" s="72"/>
+      <c r="N72" s="72"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
+      <c r="M74" s="72"/>
+      <c r="N74" s="72"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="72"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="I76" s="71"/>
+      <c r="J76" s="71"/>
+      <c r="M76" s="72"/>
+      <c r="N76" s="72"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="I77" s="71"/>
+      <c r="J77" s="71"/>
+      <c r="M77" s="72"/>
+      <c r="N77" s="72"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="71"/>
+      <c r="M78" s="72"/>
+      <c r="N78" s="72"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="71"/>
+      <c r="M79" s="72"/>
+      <c r="N79" s="72"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="71"/>
+      <c r="M80" s="72"/>
+      <c r="N80" s="72"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="71"/>
+      <c r="C81" s="71"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="71"/>
+      <c r="M81" s="72"/>
+      <c r="N81" s="72"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="71"/>
+      <c r="C82" s="71"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
+      <c r="M82" s="72"/>
+      <c r="N82" s="72"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="71"/>
+      <c r="C83" s="71"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="I83" s="71"/>
+      <c r="J83" s="71"/>
+      <c r="M83" s="72"/>
+      <c r="N83" s="72"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="71"/>
+      <c r="C84" s="71"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="I84" s="71"/>
+      <c r="J84" s="71"/>
+      <c r="M84" s="72"/>
+      <c r="N84" s="72"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="72"/>
+      <c r="I85" s="71"/>
+      <c r="J85" s="71"/>
+      <c r="M85" s="72"/>
+      <c r="N85" s="72"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="72"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="M86" s="72"/>
+      <c r="N86" s="72"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="71"/>
+      <c r="C87" s="71"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="72"/>
+      <c r="I87" s="71"/>
+      <c r="J87" s="71"/>
+      <c r="M87" s="72"/>
+      <c r="N87" s="72"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="71"/>
+      <c r="C88" s="71"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="I88" s="71"/>
+      <c r="J88" s="71"/>
+      <c r="M88" s="72"/>
+      <c r="N88" s="72"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="71"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="72"/>
+      <c r="I89" s="71"/>
+      <c r="J89" s="80"/>
+      <c r="K89" s="81"/>
+      <c r="L89" s="81"/>
+      <c r="M89" s="82"/>
+      <c r="N89" s="72"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="80"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="82"/>
+      <c r="I90" s="80"/>
+      <c r="J90" s="81"/>
+      <c r="K90" s="81"/>
+      <c r="L90" s="81"/>
+      <c r="M90" s="81"/>
+      <c r="N90" s="82"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="68"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="70"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="69"/>
+      <c r="N92" s="70"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="71"/>
+      <c r="G93" s="72"/>
+      <c r="I93" s="71"/>
+      <c r="N93" s="72"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="71"/>
+      <c r="G94" s="72"/>
+      <c r="I94" s="71"/>
+      <c r="N94" s="72"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="71"/>
+      <c r="G95" s="72"/>
+      <c r="I95" s="71"/>
+      <c r="N95" s="72"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="71"/>
+      <c r="C96" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="G96" s="72"/>
+      <c r="I96" s="71"/>
+      <c r="J96" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="N96" s="72"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="71"/>
+      <c r="C97" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="G97" s="72"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="L97" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="M97" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="N97" s="72"/>
+      <c r="O97" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="P97" s="86"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="71"/>
+      <c r="C98" s="71"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="72"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="71"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="70"/>
+      <c r="N98" s="72"/>
+      <c r="P98" s="87"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="71"/>
+      <c r="C99" s="83"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="83"/>
+      <c r="M99" s="72"/>
+      <c r="N99" s="72"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="72"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="M100" s="72"/>
+      <c r="N100" s="72"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="71"/>
+      <c r="C101" s="84"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="84"/>
+      <c r="M101" s="72"/>
+      <c r="N101" s="72"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="71"/>
+      <c r="C102" s="71"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
+      <c r="M102" s="72"/>
+      <c r="N102" s="72"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="71"/>
+      <c r="C103" s="71"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="72"/>
+      <c r="I103" s="71"/>
+      <c r="J103" s="71"/>
+      <c r="M103" s="72"/>
+      <c r="N103" s="72"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="71"/>
+      <c r="C104" s="71"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="72"/>
+      <c r="I104" s="71"/>
+      <c r="J104" s="71"/>
+      <c r="M104" s="72"/>
+      <c r="N104" s="72"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="71"/>
+      <c r="C105" s="71"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="72"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="71"/>
+      <c r="M105" s="72"/>
+      <c r="N105" s="72"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="71"/>
+      <c r="C106" s="71"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="M106" s="72"/>
+      <c r="N106" s="72"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="71"/>
+      <c r="C107" s="71"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="72"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
+      <c r="M107" s="72"/>
+      <c r="N107" s="72"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="71"/>
+      <c r="C108" s="71"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="72"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="71"/>
+      <c r="M108" s="72"/>
+      <c r="N108" s="72"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="71"/>
+      <c r="C109" s="71"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="72"/>
+      <c r="I109" s="71"/>
+      <c r="J109" s="71"/>
+      <c r="M109" s="72"/>
+      <c r="N109" s="72"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="71"/>
+      <c r="C110" s="71"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="72"/>
+      <c r="I110" s="71"/>
+      <c r="J110" s="71"/>
+      <c r="M110" s="72"/>
+      <c r="N110" s="72"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="71"/>
+      <c r="C111" s="71"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="72"/>
+      <c r="I111" s="71"/>
+      <c r="J111" s="71"/>
+      <c r="M111" s="72"/>
+      <c r="N111" s="72"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="71"/>
+      <c r="C112" s="71"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="72"/>
+      <c r="I112" s="71"/>
+      <c r="J112" s="71"/>
+      <c r="M112" s="72"/>
+      <c r="N112" s="72"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="71"/>
+      <c r="C113" s="71"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="72"/>
+      <c r="I113" s="71"/>
+      <c r="J113" s="71"/>
+      <c r="M113" s="72"/>
+      <c r="N113" s="72"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="71"/>
+      <c r="C114" s="71"/>
+      <c r="F114" s="72"/>
+      <c r="G114" s="72"/>
+      <c r="I114" s="71"/>
+      <c r="J114" s="71"/>
+      <c r="M114" s="72"/>
+      <c r="N114" s="72"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="71"/>
+      <c r="C115" s="71"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="72"/>
+      <c r="I115" s="71"/>
+      <c r="J115" s="71"/>
+      <c r="M115" s="72"/>
+      <c r="N115" s="72"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="71"/>
+      <c r="C116" s="71"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="72"/>
+      <c r="I116" s="71"/>
+      <c r="J116" s="71"/>
+      <c r="M116" s="72"/>
+      <c r="N116" s="72"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="71"/>
+      <c r="C117" s="71"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="M117" s="72"/>
+      <c r="N117" s="72"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="71"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="82"/>
+      <c r="G118" s="72"/>
+      <c r="I118" s="71"/>
+      <c r="J118" s="80"/>
+      <c r="K118" s="81"/>
+      <c r="L118" s="81"/>
+      <c r="M118" s="82"/>
+      <c r="N118" s="72"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="80"/>
+      <c r="C119" s="81"/>
+      <c r="D119" s="81"/>
+      <c r="E119" s="81"/>
+      <c r="F119" s="81"/>
+      <c r="G119" s="82"/>
+      <c r="I119" s="80"/>
+      <c r="J119" s="81"/>
+      <c r="K119" s="81"/>
+      <c r="L119" s="81"/>
+      <c r="M119" s="81"/>
+      <c r="N119" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C17"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/画面設計/【画面設計】12_ユーザ管理画面(カロリー管理画面).xlsx
+++ b/画面設計/【画面設計】12_ユーザ管理画面(カロリー管理画面).xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="oWVXRxKMCmQ5qJLMIoHKW1EJaVmpA3yqOfdyZ8EPVWA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="GWbmUEKLAwN4+GW4Yp13sNHMN3eaObjJVAFA1rhitvs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -177,6 +177,51 @@
     <t xml:space="preserve">　カロリー履歴を表示する日を指定</t>
   </si>
   <si>
+    <t>※以下は基本変更不可</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2020/9/26)</t>
+  </si>
+  <si>
+    <t>カロリーの総合計：</t>
+  </si>
+  <si>
+    <t>Kcal</t>
+  </si>
+  <si>
+    <t>(テキストボックス：選択したレシピのカロリーの合計を表示、変更可）</t>
+  </si>
+  <si>
+    <t>（ラベル：選択したレシピのカロリーの合計を表示）</t>
+  </si>
+  <si>
+    <t>朝食：</t>
+  </si>
+  <si>
+    <t>トースト　　　　　　　　▼</t>
+  </si>
+  <si>
+    <t>（レシピを一覧表示）</t>
+  </si>
+  <si>
+    <t>(選択したレシピの非活性）</t>
+  </si>
+  <si>
+    <t>昼食：</t>
+  </si>
+  <si>
+    <t>カレー　　　　　　　　　▼</t>
+  </si>
+  <si>
+    <t>夕食：</t>
+  </si>
+  <si>
+    <t>ハンバーグ、ご飯　　　　 ▼</t>
+  </si>
+  <si>
+    <t>（複数選択可能なプルダウン)</t>
+  </si>
+  <si>
     <t xml:space="preserve">　⚫︎ 体重管理</t>
   </si>
   <si>
@@ -195,6 +240,12 @@
     <t xml:space="preserve">　体重履歴を表示する日を指定</t>
   </si>
   <si>
+    <t>体重：</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
     <t xml:space="preserve">　← IDの欄を追加して、非活性で表示させる。</t>
   </si>
 </sst>
@@ -205,7 +256,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -274,6 +325,42 @@
       <b/>
       <sz val="14.0"/>
       <color rgb="FFFF9900"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -466,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -722,6 +809,51 @@
     <xf borderId="11" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="11" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="4" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -748,11 +880,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>-9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9886950" cy="4800600"/>
+    <xdr:ext cx="9096375" cy="4800600"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
@@ -761,9 +893,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="152400"/>
-          <a:ext cx="10667999" cy="5130547"/>
+          <a:ext cx="7315200" cy="3832251"/>
           <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="10667999" cy="5130547"/>
+          <a:chExt cx="7315200" cy="3832251"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -782,7 +914,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="10667999" cy="5130547"/>
+            <a:ext cx="7315200" cy="3832251"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -806,7 +938,7 @@
     <xdr:ext cx="5505450" cy="4810125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -834,7 +966,7 @@
     <xdr:ext cx="5505450" cy="4810125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -855,14 +987,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4010025</xdr:colOff>
+      <xdr:colOff>4019550</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5467350" cy="4800600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -883,14 +1015,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4010025</xdr:colOff>
+      <xdr:colOff>4000500</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5505450" cy="4800600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -918,7 +1050,7 @@
     <xdr:ext cx="6886575" cy="5105400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -998,253 +1130,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2133600" cy="2743200"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="4196560" cy="5410199"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="4196560" cy="5410199"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Shape 5"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId2">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="4196560" cy="5410199"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="sm" w="sm" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Shape 6"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1025250" y="4588250"/>
-            <a:ext cx="1522500" cy="741000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400"/>
-              <a:t>1150kcal</a:t>
-            </a:r>
-            <a:endParaRPr sz="1400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="885825" cy="371475"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="2762250" cy="1162050"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="2762250" cy="1162050"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="Shape 7"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId3">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="2762250" cy="1162050"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1390650</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2409825" cy="3114675"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="4196560" cy="5410199"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="4196560" cy="5410199"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="Shape 8"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId2">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="4196560" cy="5410199"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="sm" w="sm" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Shape 9"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="781625" y="4415675"/>
-            <a:ext cx="1827300" cy="385800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400"/>
-              <a:t>1500Kcal</a:t>
-            </a:r>
-            <a:endParaRPr sz="1400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>33</xdr:row>
@@ -1266,11 +1151,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="Shape 10"/>
+          <xdr:cNvPr id="5" name="Shape 5"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId4">
+          <a:blip r:embed="rId2">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1317,11 +1202,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="Shape 11"/>
+          <xdr:cNvPr id="6" name="Shape 6"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId5">
+          <a:blip r:embed="rId3">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1368,11 +1253,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="12" name="Shape 12"/>
+          <xdr:cNvPr id="7" name="Shape 7"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId6">
+          <a:blip r:embed="rId4">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1419,11 +1304,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="13" name="Shape 13"/>
+          <xdr:cNvPr id="8" name="Shape 8"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId6">
+          <a:blip r:embed="rId4">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1449,108 +1334,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2066925" cy="2667000"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="4196560" cy="5410199"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="4196560" cy="5410199"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14" name="Shape 14"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId2">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="4196560" cy="5410199"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="sm" w="sm" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Shape 15"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="964350" y="4395375"/>
-            <a:ext cx="1837200" cy="700500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400"/>
-              <a:t>67kg</a:t>
-            </a:r>
-            <a:endParaRPr sz="1400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1066800" cy="485775"/>
     <xdr:grpSp>
@@ -1568,11 +1355,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="16" name="Shape 16"/>
+          <xdr:cNvPr id="9" name="Shape 9"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId3">
+          <a:blip r:embed="rId5">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1598,107 +1385,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1390650</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2409825" cy="3114675"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="4196560" cy="5410199"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="4196560" cy="5410199"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="17" name="Shape 17"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId2">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="4196560" cy="5410199"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="sm" w="sm" type="none"/>
-            <a:tailEnd len="sm" w="sm" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Shape 18"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="903425" y="4466425"/>
-            <a:ext cx="710700" cy="253800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400"/>
-              <a:t>67 kg</a:t>
-            </a:r>
-            <a:endParaRPr sz="1400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5419725" cy="666750"/>
@@ -1717,11 +1406,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="19" name="Shape 19"/>
+          <xdr:cNvPr id="10" name="Shape 10"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId6">
+          <a:blip r:embed="rId4">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1749,7 +1438,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5334000" cy="666750"/>
@@ -1768,11 +1457,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="20" name="Shape 20"/>
+          <xdr:cNvPr id="11" name="Shape 11"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId6">
+          <a:blip r:embed="rId4">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1800,7 +1489,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5419725" cy="666750"/>
@@ -1819,11 +1508,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="21" name="Shape 21"/>
+          <xdr:cNvPr id="12" name="Shape 12"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId6">
+          <a:blip r:embed="rId4">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1851,7 +1540,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5467350" cy="600075"/>
@@ -1870,11 +1559,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="22" name="Shape 22"/>
+          <xdr:cNvPr id="13" name="Shape 13"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId6">
+          <a:blip r:embed="rId4">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1902,7 +1591,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4552950" cy="3962400"/>
@@ -1921,11 +1610,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="23" name="Shape 23"/>
+          <xdr:cNvPr id="14" name="Shape 14"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId7">
+          <a:blip r:embed="rId6">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1953,7 +1642,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3629025" cy="3914775"/>
@@ -1972,7 +1661,58 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="24" name="Shape 24"/>
+          <xdr:cNvPr id="15" name="Shape 15"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId7">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="5036091" cy="5410200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2962275" cy="1743075"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="4267200" cy="3943350"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="4267200" cy="3943350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="Shape 16"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
@@ -1986,7 +1726,211 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="5036091" cy="5410200"/>
+            <a:ext cx="4267200" cy="3943350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1000125" cy="438150"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="2762250" cy="1162050"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="2762250" cy="1162050"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="Shape 17"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId5">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="2762250" cy="1162050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2905125" cy="1666875"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="4267200" cy="3943350"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="4267200" cy="3943350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="Shape 18"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId8">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="4267200" cy="3943350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2962275" cy="1800225"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="4267200" cy="3943350"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="4267200" cy="3943350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="Shape 19"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId8">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="4267200" cy="3943350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2905125" cy="1800225"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="4267200" cy="3943350"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="4267200" cy="3943350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="Shape 20"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId8">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="4267200" cy="3943350"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3445,7 +3389,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -4319,7 +4263,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="27"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -54834,235 +54778,316 @@
       <c r="F53" s="72"/>
       <c r="G53" s="72"/>
       <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
+      <c r="J53" s="85" t="s">
+        <v>52</v>
+      </c>
       <c r="M53" s="72"/>
       <c r="N53" s="72"/>
     </row>
     <row r="54">
       <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="F54" s="72"/>
+      <c r="C54" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="87"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="89"/>
       <c r="G54" s="72"/>
       <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="M54" s="72"/>
+      <c r="J54" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="K54" s="87"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="89"/>
       <c r="N54" s="72"/>
     </row>
     <row r="55">
       <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="F55" s="72"/>
+      <c r="C55" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="90">
+        <v>1360.0</v>
+      </c>
+      <c r="E55" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="89"/>
       <c r="G55" s="72"/>
       <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="M55" s="72"/>
+      <c r="J55" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="K55" s="87">
+        <v>1360.0</v>
+      </c>
+      <c r="L55" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="M55" s="89"/>
       <c r="N55" s="72"/>
     </row>
     <row r="56">
       <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
-      <c r="F56" s="72"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="92"/>
+      <c r="F56" s="89"/>
       <c r="G56" s="72"/>
       <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="M56" s="72"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="L56" s="92"/>
+      <c r="M56" s="93"/>
       <c r="N56" s="72"/>
     </row>
     <row r="57">
       <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="F57" s="72"/>
+      <c r="C57" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="93" t="s">
+        <v>60</v>
+      </c>
       <c r="G57" s="72"/>
       <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="M57" s="72"/>
+      <c r="J57" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="K57" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="L57" s="20"/>
+      <c r="M57" s="96" t="s">
+        <v>61</v>
+      </c>
       <c r="N57" s="72"/>
     </row>
     <row r="58">
       <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
-      <c r="F58" s="72"/>
+      <c r="C58" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="93" t="s">
+        <v>60</v>
+      </c>
       <c r="G58" s="72"/>
       <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="M58" s="72"/>
+      <c r="J58" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="K58" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L58" s="20"/>
+      <c r="M58" s="96" t="s">
+        <v>61</v>
+      </c>
       <c r="N58" s="72"/>
     </row>
     <row r="59">
       <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="F59" s="72"/>
+      <c r="C59" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="93" t="s">
+        <v>60</v>
+      </c>
       <c r="G59" s="72"/>
       <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="M59" s="72"/>
+      <c r="J59" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="K59" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59" s="20"/>
+      <c r="M59" s="96" t="s">
+        <v>61</v>
+      </c>
       <c r="N59" s="72"/>
     </row>
     <row r="60">
       <c r="B60" s="71"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="82"/>
+      <c r="C60" s="71"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="98" t="s">
+        <v>66</v>
+      </c>
       <c r="G60" s="72"/>
       <c r="I60" s="71"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="82"/>
+      <c r="J60" s="71"/>
+      <c r="M60" s="72"/>
       <c r="N60" s="72"/>
     </row>
     <row r="61">
-      <c r="B61" s="80"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="82"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="82"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
     </row>
     <row r="63">
-      <c r="B63" s="68"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="70"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="70"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="72"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="81"/>
+      <c r="M63" s="82"/>
+      <c r="N63" s="72"/>
     </row>
     <row r="64">
-      <c r="B64" s="71"/>
-      <c r="G64" s="72"/>
-      <c r="I64" s="71"/>
-      <c r="N64" s="72"/>
-    </row>
-    <row r="65">
-      <c r="B65" s="71"/>
-      <c r="G65" s="72"/>
-      <c r="I65" s="71"/>
-      <c r="N65" s="72"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="82"/>
+      <c r="I64" s="80"/>
+      <c r="J64" s="81"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="82"/>
     </row>
     <row r="66">
-      <c r="B66" s="71"/>
-      <c r="G66" s="72"/>
-      <c r="I66" s="71"/>
-      <c r="N66" s="72"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="70"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="70"/>
     </row>
     <row r="67">
       <c r="B67" s="71"/>
-      <c r="C67" s="73" t="s">
+      <c r="G67" s="72"/>
+      <c r="I67" s="71"/>
+      <c r="N67" s="72"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="71"/>
+      <c r="G68" s="72"/>
+      <c r="I68" s="71"/>
+      <c r="N68" s="72"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="71"/>
+      <c r="G69" s="72"/>
+      <c r="I69" s="71"/>
+      <c r="N69" s="72"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="71"/>
+      <c r="C70" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="72"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="73" t="s">
+      <c r="G70" s="72"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="N67" s="72"/>
-    </row>
-    <row r="68">
-      <c r="B68" s="71"/>
-      <c r="C68" s="75" t="s">
+      <c r="N70" s="72"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="71"/>
+      <c r="C71" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="75" t="s">
+      <c r="D71" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="74" t="s">
+      <c r="E71" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="76" t="s">
+      <c r="F71" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="G68" s="72"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="75" t="s">
+      <c r="G71" s="72"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="K68" s="75" t="s">
+      <c r="K71" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="L68" s="74" t="s">
+      <c r="L71" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="M68" s="76" t="s">
+      <c r="M71" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="N68" s="72"/>
-    </row>
-    <row r="69">
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="72"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="71"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="70"/>
-      <c r="N69" s="72"/>
-    </row>
-    <row r="70">
-      <c r="B70" s="71"/>
-      <c r="C70" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="K70" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
-    </row>
-    <row r="71">
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="I71" s="71"/>
-      <c r="J71" s="71"/>
-      <c r="M71" s="72"/>
       <c r="N71" s="72"/>
     </row>
     <row r="72">
       <c r="B72" s="71"/>
-      <c r="C72" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F72" s="72"/>
+      <c r="C72" s="71"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="70"/>
       <c r="G72" s="72"/>
       <c r="I72" s="71"/>
-      <c r="J72" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="M72" s="72"/>
+      <c r="J72" s="71"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="70"/>
       <c r="N72" s="72"/>
     </row>
     <row r="73">
       <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
+      <c r="C73" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="73" t="s">
+        <v>68</v>
+      </c>
       <c r="F73" s="72"/>
       <c r="G73" s="72"/>
       <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
+      <c r="J73" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="K73" s="73" t="s">
+        <v>70</v>
+      </c>
       <c r="M73" s="72"/>
       <c r="N73" s="72"/>
     </row>
@@ -55078,11 +55103,15 @@
     </row>
     <row r="75">
       <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
+      <c r="C75" s="84" t="s">
+        <v>71</v>
+      </c>
       <c r="F75" s="72"/>
       <c r="G75" s="72"/>
       <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
+      <c r="J75" s="84" t="s">
+        <v>72</v>
+      </c>
       <c r="M75" s="72"/>
       <c r="N75" s="72"/>
     </row>
@@ -55168,7 +55197,7 @@
     </row>
     <row r="84">
       <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
+      <c r="C84" s="86"/>
       <c r="F84" s="72"/>
       <c r="G84" s="72"/>
       <c r="I84" s="71"/>
@@ -55178,7 +55207,7 @@
     </row>
     <row r="85">
       <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
+      <c r="C85" s="86"/>
       <c r="F85" s="72"/>
       <c r="G85" s="72"/>
       <c r="I85" s="71"/>
@@ -55188,21 +55217,41 @@
     </row>
     <row r="86">
       <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
+      <c r="C86" s="86" t="s">
+        <v>53</v>
+      </c>
       <c r="F86" s="72"/>
       <c r="G86" s="72"/>
       <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
+      <c r="J86" s="86" t="s">
+        <v>53</v>
+      </c>
       <c r="M86" s="72"/>
       <c r="N86" s="72"/>
     </row>
     <row r="87">
       <c r="B87" s="71"/>
-      <c r="C87" s="71"/>
+      <c r="C87" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" s="90">
+        <v>63.0</v>
+      </c>
+      <c r="E87" s="88" t="s">
+        <v>74</v>
+      </c>
       <c r="F87" s="72"/>
       <c r="G87" s="72"/>
       <c r="I87" s="71"/>
-      <c r="J87" s="71"/>
+      <c r="J87" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="K87" s="99">
+        <v>63.0</v>
+      </c>
+      <c r="L87" s="88" t="s">
+        <v>74</v>
+      </c>
       <c r="M87" s="72"/>
       <c r="N87" s="72"/>
     </row>
@@ -55218,160 +55267,160 @@
     </row>
     <row r="89">
       <c r="B89" s="71"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="81"/>
-      <c r="F89" s="82"/>
+      <c r="C89" s="71"/>
+      <c r="F89" s="72"/>
       <c r="G89" s="72"/>
       <c r="I89" s="71"/>
-      <c r="J89" s="80"/>
-      <c r="K89" s="81"/>
-      <c r="L89" s="81"/>
-      <c r="M89" s="82"/>
+      <c r="J89" s="71"/>
+      <c r="M89" s="72"/>
       <c r="N89" s="72"/>
     </row>
     <row r="90">
-      <c r="B90" s="80"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="81"/>
-      <c r="E90" s="81"/>
-      <c r="F90" s="81"/>
-      <c r="G90" s="82"/>
-      <c r="I90" s="80"/>
-      <c r="J90" s="81"/>
-      <c r="K90" s="81"/>
-      <c r="L90" s="81"/>
-      <c r="M90" s="81"/>
-      <c r="N90" s="82"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="I90" s="71"/>
+      <c r="J90" s="71"/>
+      <c r="M90" s="72"/>
+      <c r="N90" s="72"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="71"/>
+      <c r="C91" s="71"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
+      <c r="I91" s="71"/>
+      <c r="J91" s="71"/>
+      <c r="M91" s="72"/>
+      <c r="N91" s="72"/>
     </row>
     <row r="92">
-      <c r="B92" s="68"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="70"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="69"/>
-      <c r="K92" s="69"/>
-      <c r="L92" s="69"/>
-      <c r="M92" s="69"/>
-      <c r="N92" s="70"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="82"/>
+      <c r="G92" s="72"/>
+      <c r="I92" s="71"/>
+      <c r="J92" s="80"/>
+      <c r="K92" s="81"/>
+      <c r="L92" s="81"/>
+      <c r="M92" s="82"/>
+      <c r="N92" s="72"/>
     </row>
     <row r="93">
-      <c r="B93" s="71"/>
-      <c r="G93" s="72"/>
-      <c r="I93" s="71"/>
-      <c r="N93" s="72"/>
-    </row>
-    <row r="94">
-      <c r="B94" s="71"/>
-      <c r="G94" s="72"/>
-      <c r="I94" s="71"/>
-      <c r="N94" s="72"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="81"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="82"/>
+      <c r="I93" s="80"/>
+      <c r="J93" s="81"/>
+      <c r="K93" s="81"/>
+      <c r="L93" s="81"/>
+      <c r="M93" s="81"/>
+      <c r="N93" s="82"/>
     </row>
     <row r="95">
-      <c r="B95" s="71"/>
-      <c r="G95" s="72"/>
-      <c r="I95" s="71"/>
-      <c r="N95" s="72"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="70"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="69"/>
+      <c r="K95" s="69"/>
+      <c r="L95" s="69"/>
+      <c r="M95" s="69"/>
+      <c r="N95" s="70"/>
     </row>
     <row r="96">
       <c r="B96" s="71"/>
-      <c r="C96" s="73" t="s">
+      <c r="G96" s="72"/>
+      <c r="I96" s="71"/>
+      <c r="N96" s="72"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="71"/>
+      <c r="G97" s="72"/>
+      <c r="I97" s="71"/>
+      <c r="N97" s="72"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="71"/>
+      <c r="G98" s="72"/>
+      <c r="I98" s="71"/>
+      <c r="N98" s="72"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="71"/>
+      <c r="C99" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="72"/>
-      <c r="I96" s="71"/>
-      <c r="J96" s="73" t="s">
+      <c r="G99" s="72"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="N96" s="72"/>
-    </row>
-    <row r="97">
-      <c r="B97" s="71"/>
-      <c r="C97" s="75" t="s">
+      <c r="N99" s="72"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="71"/>
+      <c r="C100" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D97" s="75" t="s">
+      <c r="D100" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E97" s="75" t="s">
+      <c r="E100" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="F97" s="85" t="s">
+      <c r="F100" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="G97" s="72"/>
-      <c r="I97" s="71"/>
-      <c r="J97" s="75" t="s">
+      <c r="G100" s="72"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="K97" s="75" t="s">
+      <c r="K100" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="L97" s="75" t="s">
+      <c r="L100" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="M97" s="85" t="s">
+      <c r="M100" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="N97" s="72"/>
-      <c r="O97" s="86" t="s">
-        <v>58</v>
+      <c r="N100" s="72"/>
+      <c r="O100" s="101" t="s">
+        <v>75</v>
       </c>
-      <c r="P97" s="86"/>
-    </row>
-    <row r="98">
-      <c r="B98" s="71"/>
-      <c r="C98" s="71"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="72"/>
-      <c r="I98" s="71"/>
-      <c r="J98" s="71"/>
-      <c r="L98" s="69"/>
-      <c r="M98" s="70"/>
-      <c r="N98" s="72"/>
-      <c r="P98" s="87"/>
-    </row>
-    <row r="99">
-      <c r="B99" s="71"/>
-      <c r="C99" s="83"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="72"/>
-      <c r="I99" s="71"/>
-      <c r="J99" s="83"/>
-      <c r="M99" s="72"/>
-      <c r="N99" s="72"/>
-    </row>
-    <row r="100">
-      <c r="B100" s="71"/>
-      <c r="C100" s="71"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="I100" s="71"/>
-      <c r="J100" s="71"/>
-      <c r="M100" s="72"/>
-      <c r="N100" s="72"/>
+      <c r="P100" s="101"/>
     </row>
     <row r="101">
       <c r="B101" s="71"/>
-      <c r="C101" s="84"/>
-      <c r="F101" s="72"/>
+      <c r="C101" s="71"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="70"/>
       <c r="G101" s="72"/>
       <c r="I101" s="71"/>
-      <c r="J101" s="84"/>
-      <c r="M101" s="72"/>
+      <c r="J101" s="71"/>
+      <c r="L101" s="69"/>
+      <c r="M101" s="70"/>
       <c r="N101" s="72"/>
+      <c r="P101" s="102"/>
     </row>
     <row r="102">
       <c r="B102" s="71"/>
-      <c r="C102" s="71"/>
+      <c r="C102" s="83"/>
       <c r="F102" s="72"/>
       <c r="G102" s="72"/>
       <c r="I102" s="71"/>
-      <c r="J102" s="71"/>
+      <c r="J102" s="83"/>
       <c r="M102" s="72"/>
       <c r="N102" s="72"/>
     </row>
@@ -55387,11 +55436,11 @@
     </row>
     <row r="104">
       <c r="B104" s="71"/>
-      <c r="C104" s="71"/>
+      <c r="C104" s="84"/>
       <c r="F104" s="72"/>
       <c r="G104" s="72"/>
       <c r="I104" s="71"/>
-      <c r="J104" s="71"/>
+      <c r="J104" s="84"/>
       <c r="M104" s="72"/>
       <c r="N104" s="72"/>
     </row>
@@ -55527,35 +55576,71 @@
     </row>
     <row r="118">
       <c r="B118" s="71"/>
-      <c r="C118" s="80"/>
-      <c r="D118" s="81"/>
-      <c r="E118" s="81"/>
-      <c r="F118" s="82"/>
+      <c r="C118" s="71"/>
+      <c r="F118" s="72"/>
       <c r="G118" s="72"/>
       <c r="I118" s="71"/>
-      <c r="J118" s="80"/>
-      <c r="K118" s="81"/>
-      <c r="L118" s="81"/>
-      <c r="M118" s="82"/>
+      <c r="J118" s="71"/>
+      <c r="M118" s="72"/>
       <c r="N118" s="72"/>
     </row>
     <row r="119">
-      <c r="B119" s="80"/>
-      <c r="C119" s="81"/>
-      <c r="D119" s="81"/>
-      <c r="E119" s="81"/>
-      <c r="F119" s="81"/>
-      <c r="G119" s="82"/>
-      <c r="I119" s="80"/>
-      <c r="J119" s="81"/>
-      <c r="K119" s="81"/>
-      <c r="L119" s="81"/>
-      <c r="M119" s="81"/>
-      <c r="N119" s="82"/>
+      <c r="B119" s="71"/>
+      <c r="C119" s="71"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="72"/>
+      <c r="I119" s="71"/>
+      <c r="J119" s="71"/>
+      <c r="M119" s="72"/>
+      <c r="N119" s="72"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="71"/>
+      <c r="C120" s="71"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="I120" s="71"/>
+      <c r="J120" s="71"/>
+      <c r="M120" s="72"/>
+      <c r="N120" s="72"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="71"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="81"/>
+      <c r="E121" s="81"/>
+      <c r="F121" s="82"/>
+      <c r="G121" s="72"/>
+      <c r="I121" s="71"/>
+      <c r="J121" s="80"/>
+      <c r="K121" s="81"/>
+      <c r="L121" s="81"/>
+      <c r="M121" s="82"/>
+      <c r="N121" s="72"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="80"/>
+      <c r="C122" s="81"/>
+      <c r="D122" s="81"/>
+      <c r="E122" s="81"/>
+      <c r="F122" s="81"/>
+      <c r="G122" s="82"/>
+      <c r="I122" s="80"/>
+      <c r="J122" s="81"/>
+      <c r="K122" s="81"/>
+      <c r="L122" s="81"/>
+      <c r="M122" s="81"/>
+      <c r="N122" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="C9:C17"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/画面設計/【画面設計】12_ユーザ管理画面(カロリー管理画面).xlsx
+++ b/画面設計/【画面設計】12_ユーザ管理画面(カロリー管理画面).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　← IDの欄を追加して、非活性で表示させる。</t>
   </si>
 </sst>
 </file>
@@ -938,7 +935,7 @@
     <xdr:ext cx="5505450" cy="4810125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -966,7 +963,7 @@
     <xdr:ext cx="5505450" cy="4810125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1022,7 +1019,7 @@
     <xdr:ext cx="5505450" cy="4800600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1487,210 +1484,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5419725" cy="666750"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="7315200" cy="929122"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="7315200" cy="929122"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="12" name="Shape 12"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId4">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="7315200" cy="929122"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5467350" cy="600075"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="7315200" cy="929122"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="7315200" cy="929122"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="13" name="Shape 13"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId4">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="7315200" cy="929122"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4552950" cy="3962400"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="6232418" cy="5410199"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="6232418" cy="5410199"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14" name="Shape 14"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId6">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="6232418" cy="5410199"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3629025" cy="3914775"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="5036091" cy="5410200"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="5036091" cy="5410200"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="Shape 15"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId7">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="5036091" cy="5410200"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
       <xdr:row>43</xdr:row>
@@ -1712,11 +1505,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="16" name="Shape 16"/>
+          <xdr:cNvPr id="12" name="Shape 12"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId8">
+          <a:blip r:embed="rId6">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1763,7 +1556,7 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="17" name="Shape 17"/>
+          <xdr:cNvPr id="13" name="Shape 13"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
@@ -1814,11 +1607,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="18" name="Shape 18"/>
+          <xdr:cNvPr id="14" name="Shape 14"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId8">
+          <a:blip r:embed="rId6">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1865,11 +1658,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="19" name="Shape 19"/>
+          <xdr:cNvPr id="15" name="Shape 15"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId8">
+          <a:blip r:embed="rId6">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1916,7 +1709,158 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="20" name="Shape 20"/>
+          <xdr:cNvPr id="16" name="Shape 16"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId6">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="4267200" cy="3943350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2009775" cy="3857625"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="324825" y="913600"/>
+          <a:ext cx="2294125" cy="4425824"/>
+          <a:chOff x="324825" y="913600"/>
+          <a:chExt cx="2294125" cy="4425824"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="Shape 17"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip r:embed="rId7">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:srcRect b="4123" l="2932" r="58065" t="14070"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="324825" y="913600"/>
+            <a:ext cx="2294125" cy="4425824"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2581275" cy="3895725"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3359975" y="913600"/>
+          <a:ext cx="2558050" cy="3877650"/>
+          <a:chOff x="3359975" y="913600"/>
+          <a:chExt cx="2558050" cy="3877650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="Shape 18"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip r:embed="rId7">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:srcRect b="14262" l="54529" r="1983" t="14068"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3359975" y="913600"/>
+            <a:ext cx="2558050" cy="3877650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4676775" cy="542925"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="5943600" cy="742950"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="5943600" cy="742950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="Shape 19"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
@@ -1930,7 +1874,109 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="4267200" cy="3943350"/>
+            <a:ext cx="5943600" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="561975" cy="542925"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="2143125" cy="2143125"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="2143125" cy="2143125"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="Shape 20"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="2143125" cy="2143125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5476875" cy="542925"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="7315201" cy="804153"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="7315201" cy="804153"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="Shape 21"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId9">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="7315201" cy="804153"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -55396,9 +55442,7 @@
         <v>44</v>
       </c>
       <c r="N100" s="72"/>
-      <c r="O100" s="101" t="s">
-        <v>75</v>
-      </c>
+      <c r="O100" s="101"/>
       <c r="P100" s="101"/>
     </row>
     <row r="101">
@@ -55636,10 +55680,10 @@
   <mergeCells count="7">
     <mergeCell ref="C9:C17"/>
     <mergeCell ref="D57:E57"/>
+    <mergeCell ref="K57:L57"/>
     <mergeCell ref="D58:E58"/>
+    <mergeCell ref="K58:L58"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
     <mergeCell ref="K59:L59"/>
   </mergeCells>
   <drawing r:id="rId1"/>

--- a/画面設計/【画面設計】12_ユーザ管理画面(カロリー管理画面).xlsx
+++ b/画面設計/【画面設計】12_ユーザ管理画面(カロリー管理画面).xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="GWbmUEKLAwN4+GW4Yp13sNHMN3eaObjJVAFA1rhitvs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="mr60hF3c2m0MkMhogIJHvLK9NMgyb4oUbxrpTRS0tXo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -85,6 +85,13 @@
   </si>
   <si>
     <t>2.【機能概要】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザ管理画面(トップ)のタブ「カロリー管理」を切り替えることで表示される。
+ログインユーザに紐づく、カロリー登録とカロリー履歴を表示すること。
+カロリーを登録時に、カレンダーを選択し、朝・昼・夜で料理を選択し、総合計のカロリーを登録できること、
+カロリー履歴を参照時に、カレンダーを選択し、朝・昼・夜で料理と総合計のカロリーを参照すること。
+</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -638,8 +645,8 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -935,7 +942,7 @@
     <xdr:ext cx="5505450" cy="4810125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -963,7 +970,7 @@
     <xdr:ext cx="5505450" cy="4810125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -991,7 +998,7 @@
     <xdr:ext cx="5467350" cy="4800600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1019,7 +1026,7 @@
     <xdr:ext cx="5505450" cy="4800600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1047,7 +1054,7 @@
     <xdr:ext cx="6886575" cy="5105400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3435,7 +3442,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -5788,7 +5795,9 @@
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="6"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -5839,13 +5848,8 @@
     </row>
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="9"/>
+      <c r="B85" s="30"/>
+      <c r="H85" s="31"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -5867,13 +5871,13 @@
     </row>
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
@@ -5895,9 +5899,7 @@
     </row>
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="6"/>
-      <c r="B87" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -5925,15 +5927,11 @@
     </row>
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="6"/>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>25</v>
-      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -5959,9 +5957,15 @@
     </row>
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="6"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
+      <c r="B89" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>26</v>
+      </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -5987,9 +5991,9 @@
     </row>
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="6"/>
-      <c r="B90" s="35"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="34"/>
-      <c r="D90" s="36"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -6015,8 +6019,8 @@
     </row>
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="6"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="36"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="36"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -6043,9 +6047,9 @@
     </row>
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -6071,11 +6075,9 @@
     </row>
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="6"/>
-      <c r="B93" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -6101,13 +6103,11 @@
     </row>
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="6"/>
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D94" s="20"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -6131,10 +6131,14 @@
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
     </row>
-    <row r="95" ht="33.75" customHeight="1">
+    <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="6"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="41"/>
+      <c r="B95" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="39" t="s">
+        <v>29</v>
+      </c>
       <c r="D95" s="20"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -6159,11 +6163,11 @@
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
     </row>
-    <row r="96" ht="62.25" customHeight="1">
+    <row r="96" ht="33.75" customHeight="1">
       <c r="A96" s="6"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="9"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="20"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -6187,11 +6191,11 @@
       <c r="Y96" s="6"/>
       <c r="Z96" s="6"/>
     </row>
-    <row r="97" ht="33.75" customHeight="1">
+    <row r="97" ht="62.25" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="42"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="20"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="9"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -6217,9 +6221,9 @@
     </row>
     <row r="98" ht="33.75" customHeight="1">
       <c r="A98" s="6"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="9"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -6245,8 +6249,8 @@
     </row>
     <row r="99" ht="33.75" customHeight="1">
       <c r="A99" s="6"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="43"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="45"/>
       <c r="D99" s="9"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -6271,11 +6275,11 @@
       <c r="Y99" s="6"/>
       <c r="Z99" s="6"/>
     </row>
-    <row r="100" ht="16.5" customHeight="1">
+    <row r="100" ht="33.75" customHeight="1">
       <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="9"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -6301,16 +6305,12 @@
     </row>
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="6"/>
-      <c r="B101" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
@@ -6334,7 +6334,7 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -6365,32 +6365,20 @@
     </row>
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="6"/>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C103" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>34</v>
-      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="32" t="s">
-        <v>35</v>
+      <c r="G103" s="6" t="s">
+        <v>32</v>
       </c>
-      <c r="H103" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I103" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J103" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="K103" s="32" t="s">
-        <v>34</v>
-      </c>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
@@ -6407,18 +6395,34 @@
       <c r="Y103" s="6"/>
       <c r="Z103" s="6"/>
     </row>
-    <row r="104" ht="109.5" customHeight="1">
+    <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="6"/>
-      <c r="B104" s="47"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="48"/>
+      <c r="B104" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="49"/>
-      <c r="H104" s="49"/>
-      <c r="I104" s="49"/>
-      <c r="J104" s="49"/>
-      <c r="K104" s="49"/>
+      <c r="G104" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J104" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K104" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
@@ -6435,18 +6439,18 @@
       <c r="Y104" s="6"/>
       <c r="Z104" s="6"/>
     </row>
-    <row r="105" ht="16.5" customHeight="1">
+    <row r="105" ht="109.5" customHeight="1">
       <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="48"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
@@ -6464,65 +6468,49 @@
       <c r="Z105" s="6"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="24"/>
-      <c r="B106" s="50" t="s">
-        <v>37</v>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="6"/>
+      <c r="Y106" s="6"/>
+      <c r="Z106" s="6"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c r="A107" s="24"/>
+      <c r="B107" s="50" t="s">
+        <v>38</v>
       </c>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="50" t="s">
-        <v>37</v>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="50" t="s">
+        <v>38</v>
       </c>
-      <c r="H106" s="50"/>
-      <c r="I106" s="50"/>
-      <c r="J106" s="50"/>
-      <c r="K106" s="50"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="24"/>
-      <c r="N106" s="24"/>
-      <c r="O106" s="24"/>
-      <c r="P106" s="24"/>
-      <c r="Q106" s="24"/>
-      <c r="R106" s="24"/>
-      <c r="S106" s="24"/>
-      <c r="T106" s="24"/>
-      <c r="U106" s="24"/>
-      <c r="V106" s="24"/>
-      <c r="W106" s="24"/>
-      <c r="X106" s="24"/>
-      <c r="Y106" s="24"/>
-      <c r="Z106" s="24"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="51"/>
-      <c r="B107" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C107" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="H107" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="I107" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="J107" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="K107" s="52" t="s">
-        <v>34</v>
-      </c>
+      <c r="H107" s="50"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
       <c r="L107" s="24"/>
       <c r="M107" s="24"/>
       <c r="N107" s="24"/>
@@ -6541,16 +6529,32 @@
     </row>
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="51"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="54"/>
+      <c r="B108" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="E108" s="24"/>
       <c r="F108" s="51"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="55"/>
-      <c r="I108" s="55"/>
-      <c r="J108" s="55"/>
-      <c r="K108" s="55"/>
+      <c r="G108" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J108" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K108" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="L108" s="24"/>
       <c r="M108" s="24"/>
       <c r="N108" s="24"/>
@@ -6567,18 +6571,18 @@
       <c r="Y108" s="24"/>
       <c r="Z108" s="24"/>
     </row>
-    <row r="109" ht="27.75" customHeight="1">
+    <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="51"/>
-      <c r="B109" s="56"/>
+      <c r="B109" s="53"/>
       <c r="C109" s="54"/>
       <c r="D109" s="54"/>
       <c r="E109" s="24"/>
       <c r="F109" s="51"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="55"/>
+      <c r="K109" s="55"/>
       <c r="L109" s="24"/>
       <c r="M109" s="24"/>
       <c r="N109" s="24"/>
@@ -6595,18 +6599,18 @@
       <c r="Y109" s="24"/>
       <c r="Z109" s="24"/>
     </row>
-    <row r="110" ht="16.5" customHeight="1">
+    <row r="110" ht="27.75" customHeight="1">
       <c r="A110" s="51"/>
-      <c r="B110" s="53"/>
+      <c r="B110" s="56"/>
       <c r="C110" s="54"/>
       <c r="D110" s="54"/>
       <c r="E110" s="24"/>
       <c r="F110" s="51"/>
-      <c r="G110" s="55"/>
-      <c r="H110" s="55"/>
-      <c r="I110" s="55"/>
-      <c r="J110" s="55"/>
-      <c r="K110" s="55"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="54"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="54"/>
+      <c r="K110" s="54"/>
       <c r="L110" s="24"/>
       <c r="M110" s="24"/>
       <c r="N110" s="24"/>
@@ -6623,18 +6627,18 @@
       <c r="Y110" s="24"/>
       <c r="Z110" s="24"/>
     </row>
-    <row r="111" ht="24.0" customHeight="1">
+    <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="51"/>
-      <c r="B111" s="56"/>
+      <c r="B111" s="53"/>
       <c r="C111" s="54"/>
-      <c r="D111" s="36"/>
+      <c r="D111" s="54"/>
       <c r="E111" s="24"/>
       <c r="F111" s="51"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="55"/>
+      <c r="J111" s="55"/>
+      <c r="K111" s="55"/>
       <c r="L111" s="24"/>
       <c r="M111" s="24"/>
       <c r="N111" s="24"/>
@@ -6651,18 +6655,18 @@
       <c r="Y111" s="24"/>
       <c r="Z111" s="24"/>
     </row>
-    <row r="112" ht="36.75" customHeight="1">
-      <c r="A112" s="24"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
+    <row r="112" ht="24.0" customHeight="1">
+      <c r="A112" s="51"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="36"/>
       <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="50"/>
-      <c r="I112" s="50"/>
-      <c r="J112" s="50"/>
-      <c r="K112" s="50"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="54"/>
       <c r="L112" s="24"/>
       <c r="M112" s="24"/>
       <c r="N112" s="24"/>
@@ -6679,34 +6683,18 @@
       <c r="Y112" s="24"/>
       <c r="Z112" s="24"/>
     </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="51"/>
-      <c r="B113" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C113" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D113" s="52" t="s">
-        <v>34</v>
-      </c>
+    <row r="113" ht="36.75" customHeight="1">
+      <c r="A113" s="24"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
       <c r="E113" s="24"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="H113" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="I113" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="J113" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="K113" s="52" t="s">
-        <v>34</v>
-      </c>
+      <c r="F113" s="24"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="50"/>
+      <c r="I113" s="50"/>
+      <c r="J113" s="50"/>
+      <c r="K113" s="50"/>
       <c r="L113" s="24"/>
       <c r="M113" s="24"/>
       <c r="N113" s="24"/>
@@ -6723,18 +6711,34 @@
       <c r="Y113" s="24"/>
       <c r="Z113" s="24"/>
     </row>
-    <row r="114" ht="35.25" customHeight="1">
+    <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="51"/>
-      <c r="B114" s="54"/>
-      <c r="C114" s="54"/>
-      <c r="D114" s="57"/>
+      <c r="B114" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="E114" s="24"/>
       <c r="F114" s="51"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="55"/>
-      <c r="J114" s="55"/>
-      <c r="K114" s="55"/>
+      <c r="G114" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I114" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J114" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K114" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="L114" s="24"/>
       <c r="M114" s="24"/>
       <c r="N114" s="24"/>
@@ -6751,18 +6755,18 @@
       <c r="Y114" s="24"/>
       <c r="Z114" s="24"/>
     </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
+    <row r="115" ht="35.25" customHeight="1">
+      <c r="A115" s="51"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="57"/>
       <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="24"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="55"/>
+      <c r="J115" s="55"/>
+      <c r="K115" s="55"/>
       <c r="L115" s="24"/>
       <c r="M115" s="24"/>
       <c r="N115" s="24"/>
@@ -6779,22 +6783,18 @@
       <c r="Y115" s="24"/>
       <c r="Z115" s="24"/>
     </row>
-    <row r="116" ht="21.0" customHeight="1">
+    <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="24"/>
-      <c r="B116" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
-      <c r="G116" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="H116" s="50"/>
-      <c r="I116" s="50"/>
-      <c r="J116" s="50"/>
-      <c r="K116" s="50"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
       <c r="L116" s="24"/>
       <c r="M116" s="24"/>
       <c r="N116" s="24"/>
@@ -6811,34 +6811,22 @@
       <c r="Y116" s="24"/>
       <c r="Z116" s="24"/>
     </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="51"/>
-      <c r="B117" s="52" t="s">
-        <v>32</v>
+    <row r="117" ht="21.0" customHeight="1">
+      <c r="A117" s="24"/>
+      <c r="B117" s="50" t="s">
+        <v>39</v>
       </c>
-      <c r="C117" s="52" t="s">
-        <v>33</v>
+      <c r="C117" s="50"/>
+      <c r="D117" s="50"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="50" t="s">
+        <v>38</v>
       </c>
-      <c r="D117" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E117" s="24"/>
-      <c r="F117" s="51"/>
-      <c r="G117" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="H117" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="I117" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="J117" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="K117" s="52" t="s">
-        <v>34</v>
-      </c>
+      <c r="H117" s="50"/>
+      <c r="I117" s="50"/>
+      <c r="J117" s="50"/>
+      <c r="K117" s="50"/>
       <c r="L117" s="24"/>
       <c r="M117" s="24"/>
       <c r="N117" s="24"/>
@@ -6855,18 +6843,34 @@
       <c r="Y117" s="24"/>
       <c r="Z117" s="24"/>
     </row>
-    <row r="118" ht="48.75" customHeight="1">
+    <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="51"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="54"/>
-      <c r="D118" s="57"/>
+      <c r="B118" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="E118" s="24"/>
       <c r="F118" s="51"/>
-      <c r="G118" s="55"/>
-      <c r="H118" s="55"/>
-      <c r="I118" s="55"/>
-      <c r="J118" s="55"/>
-      <c r="K118" s="55"/>
+      <c r="G118" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I118" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J118" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K118" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="L118" s="24"/>
       <c r="M118" s="24"/>
       <c r="N118" s="24"/>
@@ -6883,11 +6887,11 @@
       <c r="Y118" s="24"/>
       <c r="Z118" s="24"/>
     </row>
-    <row r="119" ht="18.75" customHeight="1">
+    <row r="119" ht="48.75" customHeight="1">
       <c r="A119" s="51"/>
-      <c r="B119" s="53"/>
+      <c r="B119" s="40"/>
       <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
+      <c r="D119" s="57"/>
       <c r="E119" s="24"/>
       <c r="F119" s="51"/>
       <c r="G119" s="55"/>
@@ -6911,18 +6915,18 @@
       <c r="Y119" s="24"/>
       <c r="Z119" s="24"/>
     </row>
-    <row r="120" ht="26.25" customHeight="1">
+    <row r="120" ht="18.75" customHeight="1">
       <c r="A120" s="51"/>
-      <c r="B120" s="54"/>
+      <c r="B120" s="53"/>
       <c r="C120" s="54"/>
-      <c r="D120" s="57"/>
+      <c r="D120" s="54"/>
       <c r="E120" s="24"/>
       <c r="F120" s="51"/>
-      <c r="G120" s="54"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="54"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="54"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="55"/>
+      <c r="J120" s="55"/>
+      <c r="K120" s="55"/>
       <c r="L120" s="24"/>
       <c r="M120" s="24"/>
       <c r="N120" s="24"/>
@@ -6939,18 +6943,18 @@
       <c r="Y120" s="24"/>
       <c r="Z120" s="24"/>
     </row>
-    <row r="121" ht="19.5" customHeight="1">
+    <row r="121" ht="26.25" customHeight="1">
       <c r="A121" s="51"/>
-      <c r="B121" s="53"/>
+      <c r="B121" s="54"/>
       <c r="C121" s="54"/>
-      <c r="D121" s="54"/>
+      <c r="D121" s="57"/>
       <c r="E121" s="24"/>
       <c r="F121" s="51"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55"/>
-      <c r="K121" s="55"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
       <c r="L121" s="24"/>
       <c r="M121" s="24"/>
       <c r="N121" s="24"/>
@@ -6967,18 +6971,18 @@
       <c r="Y121" s="24"/>
       <c r="Z121" s="24"/>
     </row>
-    <row r="122" ht="32.25" customHeight="1">
+    <row r="122" ht="19.5" customHeight="1">
       <c r="A122" s="51"/>
-      <c r="B122" s="54"/>
+      <c r="B122" s="53"/>
       <c r="C122" s="54"/>
-      <c r="D122" s="57"/>
+      <c r="D122" s="54"/>
       <c r="E122" s="24"/>
       <c r="F122" s="51"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55"/>
       <c r="L122" s="24"/>
       <c r="M122" s="24"/>
       <c r="N122" s="24"/>
@@ -6995,18 +6999,18 @@
       <c r="Y122" s="24"/>
       <c r="Z122" s="24"/>
     </row>
-    <row r="123" ht="21.75" customHeight="1">
+    <row r="123" ht="32.25" customHeight="1">
       <c r="A123" s="51"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="59"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="57"/>
       <c r="E123" s="24"/>
       <c r="F123" s="51"/>
-      <c r="G123" s="55"/>
-      <c r="H123" s="55"/>
-      <c r="I123" s="55"/>
-      <c r="J123" s="55"/>
-      <c r="K123" s="55"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="54"/>
       <c r="L123" s="24"/>
       <c r="M123" s="24"/>
       <c r="N123" s="24"/>
@@ -7023,18 +7027,18 @@
       <c r="Y123" s="24"/>
       <c r="Z123" s="24"/>
     </row>
-    <row r="124" ht="35.25" customHeight="1">
+    <row r="124" ht="21.75" customHeight="1">
       <c r="A124" s="51"/>
-      <c r="B124" s="54"/>
-      <c r="C124" s="37"/>
-      <c r="D124" s="60"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="59"/>
       <c r="E124" s="24"/>
       <c r="F124" s="51"/>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="55"/>
+      <c r="K124" s="55"/>
       <c r="L124" s="24"/>
       <c r="M124" s="24"/>
       <c r="N124" s="24"/>
@@ -7051,18 +7055,18 @@
       <c r="Y124" s="24"/>
       <c r="Z124" s="24"/>
     </row>
-    <row r="125" ht="21.75" customHeight="1">
+    <row r="125" ht="35.25" customHeight="1">
       <c r="A125" s="51"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="54"/>
-      <c r="D125" s="54"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="60"/>
       <c r="E125" s="24"/>
       <c r="F125" s="51"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="55"/>
-      <c r="I125" s="55"/>
-      <c r="J125" s="55"/>
-      <c r="K125" s="55"/>
+      <c r="G125" s="54"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="54"/>
       <c r="L125" s="24"/>
       <c r="M125" s="24"/>
       <c r="N125" s="24"/>
@@ -7079,18 +7083,18 @@
       <c r="Y125" s="24"/>
       <c r="Z125" s="24"/>
     </row>
-    <row r="126" ht="27.75" customHeight="1">
+    <row r="126" ht="21.75" customHeight="1">
       <c r="A126" s="51"/>
-      <c r="B126" s="54"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="57"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="54"/>
       <c r="E126" s="24"/>
       <c r="F126" s="51"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="55"/>
+      <c r="K126" s="55"/>
       <c r="L126" s="24"/>
       <c r="M126" s="24"/>
       <c r="N126" s="24"/>
@@ -7107,18 +7111,18 @@
       <c r="Y126" s="24"/>
       <c r="Z126" s="24"/>
     </row>
-    <row r="127" ht="21.75" customHeight="1">
+    <row r="127" ht="27.75" customHeight="1">
       <c r="A127" s="51"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="59"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="57"/>
       <c r="E127" s="24"/>
       <c r="F127" s="51"/>
-      <c r="G127" s="55"/>
-      <c r="H127" s="55"/>
-      <c r="I127" s="55"/>
-      <c r="J127" s="55"/>
-      <c r="K127" s="55"/>
+      <c r="G127" s="54"/>
+      <c r="H127" s="54"/>
+      <c r="I127" s="54"/>
+      <c r="J127" s="54"/>
+      <c r="K127" s="54"/>
       <c r="L127" s="24"/>
       <c r="M127" s="24"/>
       <c r="N127" s="24"/>
@@ -7135,18 +7139,18 @@
       <c r="Y127" s="24"/>
       <c r="Z127" s="24"/>
     </row>
-    <row r="128" ht="27.75" customHeight="1">
+    <row r="128" ht="21.75" customHeight="1">
       <c r="A128" s="51"/>
-      <c r="B128" s="62"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="63"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="58"/>
+      <c r="D128" s="59"/>
       <c r="E128" s="24"/>
       <c r="F128" s="51"/>
-      <c r="G128" s="62"/>
-      <c r="H128" s="62"/>
-      <c r="I128" s="62"/>
-      <c r="J128" s="62"/>
-      <c r="K128" s="62"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="55"/>
+      <c r="I128" s="55"/>
+      <c r="J128" s="55"/>
+      <c r="K128" s="55"/>
       <c r="L128" s="24"/>
       <c r="M128" s="24"/>
       <c r="N128" s="24"/>
@@ -7163,33 +7167,33 @@
       <c r="Y128" s="24"/>
       <c r="Z128" s="24"/>
     </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
-      <c r="R129" s="6"/>
-      <c r="S129" s="6"/>
-      <c r="T129" s="6"/>
-      <c r="U129" s="6"/>
-      <c r="V129" s="6"/>
-      <c r="W129" s="6"/>
-      <c r="X129" s="6"/>
-      <c r="Y129" s="6"/>
-      <c r="Z129" s="6"/>
+    <row r="129" ht="27.75" customHeight="1">
+      <c r="A129" s="51"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="51"/>
+      <c r="G129" s="62"/>
+      <c r="H129" s="62"/>
+      <c r="I129" s="62"/>
+      <c r="J129" s="62"/>
+      <c r="K129" s="62"/>
+      <c r="L129" s="24"/>
+      <c r="M129" s="24"/>
+      <c r="N129" s="24"/>
+      <c r="O129" s="24"/>
+      <c r="P129" s="24"/>
+      <c r="Q129" s="24"/>
+      <c r="R129" s="24"/>
+      <c r="S129" s="24"/>
+      <c r="T129" s="24"/>
+      <c r="U129" s="24"/>
+      <c r="V129" s="24"/>
+      <c r="W129" s="24"/>
+      <c r="X129" s="24"/>
+      <c r="Y129" s="24"/>
+      <c r="Z129" s="24"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="6"/>
@@ -32643,17 +32647,45 @@
       <c r="Y1038" s="6"/>
       <c r="Z1038" s="6"/>
     </row>
+    <row r="1039" ht="16.5" customHeight="1">
+      <c r="A1039" s="6"/>
+      <c r="B1039" s="6"/>
+      <c r="C1039" s="6"/>
+      <c r="D1039" s="6"/>
+      <c r="E1039" s="6"/>
+      <c r="F1039" s="6"/>
+      <c r="G1039" s="6"/>
+      <c r="H1039" s="6"/>
+      <c r="I1039" s="6"/>
+      <c r="J1039" s="6"/>
+      <c r="K1039" s="6"/>
+      <c r="L1039" s="6"/>
+      <c r="M1039" s="6"/>
+      <c r="N1039" s="6"/>
+      <c r="O1039" s="6"/>
+      <c r="P1039" s="6"/>
+      <c r="Q1039" s="6"/>
+      <c r="R1039" s="6"/>
+      <c r="S1039" s="6"/>
+      <c r="T1039" s="6"/>
+      <c r="U1039" s="6"/>
+      <c r="V1039" s="6"/>
+      <c r="W1039" s="6"/>
+      <c r="X1039" s="6"/>
+      <c r="Y1039" s="6"/>
+      <c r="Z1039" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="B83:H85"/>
-    <mergeCell ref="C94:D94"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="B83:H86"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -32769,7 +32801,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="65"/>
       <c r="B4" s="65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -32797,10 +32829,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="65"/>
@@ -54434,30 +54466,30 @@
     <row r="7">
       <c r="B7" s="71"/>
       <c r="C7" s="73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="72"/>
     </row>
     <row r="8" ht="17.25" customHeight="1">
       <c r="B8" s="71"/>
       <c r="C8" s="74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="72"/>
     </row>
     <row r="9">
       <c r="B9" s="71"/>
       <c r="C9" s="77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="69"/>
       <c r="E9" s="69"/>
@@ -54633,42 +54665,42 @@
     <row r="38">
       <c r="B38" s="71"/>
       <c r="C38" s="73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G38" s="72"/>
       <c r="I38" s="71"/>
       <c r="J38" s="73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N38" s="72"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
       <c r="B39" s="71"/>
       <c r="C39" s="75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" s="74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" s="75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" s="76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G39" s="72"/>
       <c r="I39" s="71"/>
       <c r="J39" s="75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39" s="74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L39" s="75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M39" s="76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N39" s="72"/>
     </row>
@@ -54687,19 +54719,19 @@
     <row r="41">
       <c r="B41" s="71"/>
       <c r="C41" s="83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D41" s="73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F41" s="72"/>
       <c r="G41" s="72"/>
       <c r="I41" s="71"/>
       <c r="J41" s="83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" s="73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M41" s="72"/>
       <c r="N41" s="72"/>
@@ -54717,13 +54749,13 @@
     <row r="43">
       <c r="B43" s="71"/>
       <c r="C43" s="84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F43" s="72"/>
       <c r="G43" s="72"/>
       <c r="I43" s="71"/>
       <c r="J43" s="84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M43" s="72"/>
       <c r="N43" s="72"/>
@@ -54825,7 +54857,7 @@
       <c r="G53" s="72"/>
       <c r="I53" s="71"/>
       <c r="J53" s="85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M53" s="72"/>
       <c r="N53" s="72"/>
@@ -54833,7 +54865,7 @@
     <row r="54">
       <c r="B54" s="71"/>
       <c r="C54" s="86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54" s="87"/>
       <c r="E54" s="88"/>
@@ -54841,7 +54873,7 @@
       <c r="G54" s="72"/>
       <c r="I54" s="71"/>
       <c r="J54" s="86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K54" s="87"/>
       <c r="L54" s="88"/>
@@ -54851,25 +54883,25 @@
     <row r="55">
       <c r="B55" s="71"/>
       <c r="C55" s="86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="90">
         <v>1360.0</v>
       </c>
       <c r="E55" s="88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F55" s="89"/>
       <c r="G55" s="72"/>
       <c r="I55" s="71"/>
       <c r="J55" s="86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K55" s="87">
         <v>1360.0</v>
       </c>
       <c r="L55" s="88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M55" s="89"/>
       <c r="N55" s="72"/>
@@ -54878,7 +54910,7 @@
       <c r="B56" s="71"/>
       <c r="C56" s="86"/>
       <c r="D56" s="91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E56" s="92"/>
       <c r="F56" s="89"/>
@@ -54886,7 +54918,7 @@
       <c r="I56" s="71"/>
       <c r="J56" s="86"/>
       <c r="K56" s="91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L56" s="92"/>
       <c r="M56" s="93"/>
@@ -54895,78 +54927,78 @@
     <row r="57">
       <c r="B57" s="71"/>
       <c r="C57" s="86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D57" s="94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G57" s="72"/>
       <c r="I57" s="71"/>
       <c r="J57" s="86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K57" s="95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L57" s="20"/>
       <c r="M57" s="96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N57" s="72"/>
     </row>
     <row r="58">
       <c r="B58" s="71"/>
       <c r="C58" s="86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D58" s="94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G58" s="72"/>
       <c r="I58" s="71"/>
       <c r="J58" s="86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K58" s="95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L58" s="20"/>
       <c r="M58" s="96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N58" s="72"/>
     </row>
     <row r="59">
       <c r="B59" s="71"/>
       <c r="C59" s="86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D59" s="94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G59" s="72"/>
       <c r="I59" s="71"/>
       <c r="J59" s="86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K59" s="95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L59" s="20"/>
       <c r="M59" s="96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N59" s="72"/>
     </row>
@@ -54975,7 +55007,7 @@
       <c r="C60" s="71"/>
       <c r="E60" s="97"/>
       <c r="F60" s="98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G60" s="72"/>
       <c r="I60" s="71"/>
@@ -55066,42 +55098,42 @@
     <row r="70">
       <c r="B70" s="71"/>
       <c r="C70" s="73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G70" s="72"/>
       <c r="I70" s="71"/>
       <c r="J70" s="73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N70" s="72"/>
     </row>
     <row r="71">
       <c r="B71" s="71"/>
       <c r="C71" s="75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D71" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E71" s="74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" s="76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G71" s="72"/>
       <c r="I71" s="71"/>
       <c r="J71" s="75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L71" s="74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M71" s="76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N71" s="72"/>
     </row>
@@ -55120,19 +55152,19 @@
     <row r="73">
       <c r="B73" s="71"/>
       <c r="C73" s="83" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D73" s="73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F73" s="72"/>
       <c r="G73" s="72"/>
       <c r="I73" s="71"/>
       <c r="J73" s="83" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K73" s="73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M73" s="72"/>
       <c r="N73" s="72"/>
@@ -55150,13 +55182,13 @@
     <row r="75">
       <c r="B75" s="71"/>
       <c r="C75" s="84" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F75" s="72"/>
       <c r="G75" s="72"/>
       <c r="I75" s="71"/>
       <c r="J75" s="84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M75" s="72"/>
       <c r="N75" s="72"/>
@@ -55264,13 +55296,13 @@
     <row r="86">
       <c r="B86" s="71"/>
       <c r="C86" s="86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F86" s="72"/>
       <c r="G86" s="72"/>
       <c r="I86" s="71"/>
       <c r="J86" s="86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M86" s="72"/>
       <c r="N86" s="72"/>
@@ -55278,25 +55310,25 @@
     <row r="87">
       <c r="B87" s="71"/>
       <c r="C87" s="86" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D87" s="90">
         <v>63.0</v>
       </c>
       <c r="E87" s="88" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F87" s="72"/>
       <c r="G87" s="72"/>
       <c r="I87" s="71"/>
       <c r="J87" s="86" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K87" s="99">
         <v>63.0</v>
       </c>
       <c r="L87" s="88" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M87" s="72"/>
       <c r="N87" s="72"/>
@@ -55404,42 +55436,42 @@
     <row r="99">
       <c r="B99" s="71"/>
       <c r="C99" s="73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G99" s="72"/>
       <c r="I99" s="71"/>
       <c r="J99" s="73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N99" s="72"/>
     </row>
     <row r="100">
       <c r="B100" s="71"/>
       <c r="C100" s="75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D100" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E100" s="75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" s="100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G100" s="72"/>
       <c r="I100" s="71"/>
       <c r="J100" s="75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L100" s="75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M100" s="100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N100" s="72"/>
       <c r="O100" s="101"/>

--- a/画面設計/【画面設計】12_ユーザ管理画面(カロリー管理画面).xlsx
+++ b/画面設計/【画面設計】12_ユーザ管理画面(カロリー管理画面).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>（上記でカレンダー表示時）</t>
+  </si>
+  <si>
+    <t>過去3年分だけの制約をかける</t>
+  </si>
+  <si>
+    <t>料理は参照ダイアログにした方がよい？</t>
   </si>
   <si>
     <t>（今までに登録したカロリーの履歴を見る）※カレンダーベースで表示（ヘッダーと戻るボタンなどは表示する）</t>
@@ -998,7 +1004,7 @@
     <xdr:ext cx="5467350" cy="4800600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1019,9 +1025,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4000500</xdr:colOff>
+      <xdr:colOff>4019550</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5505450" cy="4800600"/>
     <xdr:pic>
@@ -1054,7 +1060,7 @@
     <xdr:ext cx="6886575" cy="5105400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3442,7 +3448,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -4316,10 +4322,14 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="27"/>
+      <c r="J30" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="M30" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -4344,7 +4354,9 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -5008,7 +5020,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -5766,7 +5778,7 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -5796,7 +5808,7 @@
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -5928,7 +5940,7 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -5958,13 +5970,13 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -6104,7 +6116,7 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -6134,10 +6146,10 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D95" s="20"/>
       <c r="E95" s="6"/>
@@ -6334,14 +6346,14 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
@@ -6366,14 +6378,14 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
@@ -6398,30 +6410,30 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H104" s="32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I104" s="32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J104" s="32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K104" s="32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
@@ -6498,14 +6510,14 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="24"/>
       <c r="B107" s="50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C107" s="50"/>
       <c r="D107" s="50"/>
       <c r="E107" s="24"/>
       <c r="F107" s="24"/>
       <c r="G107" s="50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H107" s="50"/>
       <c r="I107" s="50"/>
@@ -6530,30 +6542,30 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="51"/>
       <c r="B108" s="52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C108" s="52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D108" s="52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="51"/>
       <c r="G108" s="52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H108" s="52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I108" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J108" s="52" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K108" s="52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L108" s="24"/>
       <c r="M108" s="24"/>
@@ -6714,30 +6726,30 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="51"/>
       <c r="B114" s="52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C114" s="52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D114" s="52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="51"/>
       <c r="G114" s="52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H114" s="52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I114" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J114" s="52" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K114" s="52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L114" s="24"/>
       <c r="M114" s="24"/>
@@ -6814,14 +6826,14 @@
     <row r="117" ht="21.0" customHeight="1">
       <c r="A117" s="24"/>
       <c r="B117" s="50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C117" s="50"/>
       <c r="D117" s="50"/>
       <c r="E117" s="24"/>
       <c r="F117" s="24"/>
       <c r="G117" s="50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H117" s="50"/>
       <c r="I117" s="50"/>
@@ -6846,30 +6858,30 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="51"/>
       <c r="B118" s="52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C118" s="52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D118" s="52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="51"/>
       <c r="G118" s="52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H118" s="52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I118" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J118" s="52" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K118" s="52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L118" s="24"/>
       <c r="M118" s="24"/>
@@ -32681,11 +32693,11 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
+    <mergeCell ref="B83:H86"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="C98:D98"/>
-    <mergeCell ref="B83:H86"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -32801,7 +32813,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="65"/>
       <c r="B4" s="65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -32829,10 +32841,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="65"/>
@@ -54466,30 +54478,30 @@
     <row r="7">
       <c r="B7" s="71"/>
       <c r="C7" s="73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" s="72"/>
     </row>
     <row r="8" ht="17.25" customHeight="1">
       <c r="B8" s="71"/>
       <c r="C8" s="74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="72"/>
     </row>
     <row r="9">
       <c r="B9" s="71"/>
       <c r="C9" s="77" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" s="69"/>
       <c r="E9" s="69"/>
@@ -54665,42 +54677,42 @@
     <row r="38">
       <c r="B38" s="71"/>
       <c r="C38" s="73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G38" s="72"/>
       <c r="I38" s="71"/>
       <c r="J38" s="73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N38" s="72"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
       <c r="B39" s="71"/>
       <c r="C39" s="75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D39" s="74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E39" s="75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F39" s="76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G39" s="72"/>
       <c r="I39" s="71"/>
       <c r="J39" s="75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K39" s="74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L39" s="75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M39" s="76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N39" s="72"/>
     </row>
@@ -54719,19 +54731,19 @@
     <row r="41">
       <c r="B41" s="71"/>
       <c r="C41" s="83" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D41" s="73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F41" s="72"/>
       <c r="G41" s="72"/>
       <c r="I41" s="71"/>
       <c r="J41" s="83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K41" s="73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M41" s="72"/>
       <c r="N41" s="72"/>
@@ -54749,13 +54761,13 @@
     <row r="43">
       <c r="B43" s="71"/>
       <c r="C43" s="84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F43" s="72"/>
       <c r="G43" s="72"/>
       <c r="I43" s="71"/>
       <c r="J43" s="84" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M43" s="72"/>
       <c r="N43" s="72"/>
@@ -54857,7 +54869,7 @@
       <c r="G53" s="72"/>
       <c r="I53" s="71"/>
       <c r="J53" s="85" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M53" s="72"/>
       <c r="N53" s="72"/>
@@ -54865,7 +54877,7 @@
     <row r="54">
       <c r="B54" s="71"/>
       <c r="C54" s="86" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D54" s="87"/>
       <c r="E54" s="88"/>
@@ -54873,7 +54885,7 @@
       <c r="G54" s="72"/>
       <c r="I54" s="71"/>
       <c r="J54" s="86" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K54" s="87"/>
       <c r="L54" s="88"/>
@@ -54883,25 +54895,25 @@
     <row r="55">
       <c r="B55" s="71"/>
       <c r="C55" s="86" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D55" s="90">
         <v>1360.0</v>
       </c>
       <c r="E55" s="88" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F55" s="89"/>
       <c r="G55" s="72"/>
       <c r="I55" s="71"/>
       <c r="J55" s="86" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K55" s="87">
         <v>1360.0</v>
       </c>
       <c r="L55" s="88" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M55" s="89"/>
       <c r="N55" s="72"/>
@@ -54910,7 +54922,7 @@
       <c r="B56" s="71"/>
       <c r="C56" s="86"/>
       <c r="D56" s="91" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E56" s="92"/>
       <c r="F56" s="89"/>
@@ -54918,7 +54930,7 @@
       <c r="I56" s="71"/>
       <c r="J56" s="86"/>
       <c r="K56" s="91" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L56" s="92"/>
       <c r="M56" s="93"/>
@@ -54927,78 +54939,78 @@
     <row r="57">
       <c r="B57" s="71"/>
       <c r="C57" s="86" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D57" s="94" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="93" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G57" s="72"/>
       <c r="I57" s="71"/>
       <c r="J57" s="86" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K57" s="95" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L57" s="20"/>
       <c r="M57" s="96" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N57" s="72"/>
     </row>
     <row r="58">
       <c r="B58" s="71"/>
       <c r="C58" s="86" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D58" s="94" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="93" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G58" s="72"/>
       <c r="I58" s="71"/>
       <c r="J58" s="86" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K58" s="95" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L58" s="20"/>
       <c r="M58" s="96" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N58" s="72"/>
     </row>
     <row r="59">
       <c r="B59" s="71"/>
       <c r="C59" s="86" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D59" s="94" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="93" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G59" s="72"/>
       <c r="I59" s="71"/>
       <c r="J59" s="86" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K59" s="95" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L59" s="20"/>
       <c r="M59" s="96" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N59" s="72"/>
     </row>
@@ -55007,7 +55019,7 @@
       <c r="C60" s="71"/>
       <c r="E60" s="97"/>
       <c r="F60" s="98" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G60" s="72"/>
       <c r="I60" s="71"/>
@@ -55098,42 +55110,42 @@
     <row r="70">
       <c r="B70" s="71"/>
       <c r="C70" s="73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G70" s="72"/>
       <c r="I70" s="71"/>
       <c r="J70" s="73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N70" s="72"/>
     </row>
     <row r="71">
       <c r="B71" s="71"/>
       <c r="C71" s="75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D71" s="75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E71" s="74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F71" s="76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G71" s="72"/>
       <c r="I71" s="71"/>
       <c r="J71" s="75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K71" s="75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L71" s="74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M71" s="76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N71" s="72"/>
     </row>
@@ -55152,19 +55164,19 @@
     <row r="73">
       <c r="B73" s="71"/>
       <c r="C73" s="83" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D73" s="73" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F73" s="72"/>
       <c r="G73" s="72"/>
       <c r="I73" s="71"/>
       <c r="J73" s="83" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K73" s="73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M73" s="72"/>
       <c r="N73" s="72"/>
@@ -55182,13 +55194,13 @@
     <row r="75">
       <c r="B75" s="71"/>
       <c r="C75" s="84" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F75" s="72"/>
       <c r="G75" s="72"/>
       <c r="I75" s="71"/>
       <c r="J75" s="84" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M75" s="72"/>
       <c r="N75" s="72"/>
@@ -55296,13 +55308,13 @@
     <row r="86">
       <c r="B86" s="71"/>
       <c r="C86" s="86" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F86" s="72"/>
       <c r="G86" s="72"/>
       <c r="I86" s="71"/>
       <c r="J86" s="86" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M86" s="72"/>
       <c r="N86" s="72"/>
@@ -55310,25 +55322,25 @@
     <row r="87">
       <c r="B87" s="71"/>
       <c r="C87" s="86" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D87" s="90">
         <v>63.0</v>
       </c>
       <c r="E87" s="88" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F87" s="72"/>
       <c r="G87" s="72"/>
       <c r="I87" s="71"/>
       <c r="J87" s="86" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K87" s="99">
         <v>63.0</v>
       </c>
       <c r="L87" s="88" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M87" s="72"/>
       <c r="N87" s="72"/>
@@ -55436,42 +55448,42 @@
     <row r="99">
       <c r="B99" s="71"/>
       <c r="C99" s="73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G99" s="72"/>
       <c r="I99" s="71"/>
       <c r="J99" s="73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N99" s="72"/>
     </row>
     <row r="100">
       <c r="B100" s="71"/>
       <c r="C100" s="75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D100" s="75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E100" s="75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F100" s="100" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G100" s="72"/>
       <c r="I100" s="71"/>
       <c r="J100" s="75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K100" s="75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L100" s="75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M100" s="100" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N100" s="72"/>
       <c r="O100" s="101"/>
